--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF3932-24AF-41D5-840A-26B97ED87C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701ECAE9-148E-478E-858D-08B0A435FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="43965" yWindow="3735" windowWidth="10800" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV5" sheetId="3" r:id="rId1"/>
@@ -46,6 +46,14 @@
     <sheet name="U15CV5_check_total" sheetId="31" state="hidden" r:id="rId31"/>
     <sheet name="objectsPositionU16CV5" sheetId="32" state="hidden" r:id="rId32"/>
     <sheet name="U16CV5_check_total" sheetId="33" state="hidden" r:id="rId33"/>
+    <sheet name="U17CV5_check_total" sheetId="34" state="hidden" r:id="rId34"/>
+    <sheet name="objectsPositionU17CV5" sheetId="35" state="hidden" r:id="rId35"/>
+    <sheet name="U18CV5_check_total" sheetId="36" state="hidden" r:id="rId36"/>
+    <sheet name="objectsPositionU18CV5" sheetId="37" state="hidden" r:id="rId37"/>
+    <sheet name="U19CV5_check_total" sheetId="38" state="hidden" r:id="rId38"/>
+    <sheet name="objectsPositionU19CV5" sheetId="39" state="hidden" r:id="rId39"/>
+    <sheet name="U20CV5_check_total" sheetId="40" state="hidden" r:id="rId40"/>
+    <sheet name="objectsPositionU20CV5" sheetId="41" state="hidden" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="803">
   <si>
     <t>timestamp</t>
   </si>
@@ -2022,6 +2030,456 @@
   </si>
   <si>
     <t>11 su 16</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_35_29_678</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_35_33_998</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_35_36_997</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_35_27_101</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_35_39_840</t>
+  </si>
+  <si>
+    <t>U17CV</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_56_43_104</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_56_40_516</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_56_48_645</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_56_38_461</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_56_46_024</t>
+  </si>
+  <si>
+    <t>U18CV</t>
+  </si>
+  <si>
+    <t>2021_11_09_11_42_35_456</t>
+  </si>
+  <si>
+    <t>2021_11_09_11_42_42_064</t>
+  </si>
+  <si>
+    <t>2021_11_09_11_42_47_040</t>
+  </si>
+  <si>
+    <t>2021_11_09_11_42_15_399</t>
+  </si>
+  <si>
+    <t>2021_11_09_11_42_51_260</t>
+  </si>
+  <si>
+    <t>U19CV</t>
+  </si>
+  <si>
+    <t>2021_11_09_</t>
+  </si>
+  <si>
+    <t>09:35:06:716</t>
+  </si>
+  <si>
+    <t>09:35:06:761</t>
+  </si>
+  <si>
+    <t>09:35:06:805</t>
+  </si>
+  <si>
+    <t>09:35:06:816</t>
+  </si>
+  <si>
+    <t>09:35:06:838</t>
+  </si>
+  <si>
+    <t>09:35:09:964</t>
+  </si>
+  <si>
+    <t>09:35:10:341</t>
+  </si>
+  <si>
+    <t>09:35:12:663</t>
+  </si>
+  <si>
+    <t>09:35:12:696</t>
+  </si>
+  <si>
+    <t>09:35:12:719</t>
+  </si>
+  <si>
+    <t>09:35:12:963</t>
+  </si>
+  <si>
+    <t>09:35:15:484</t>
+  </si>
+  <si>
+    <t>09:35:15:795</t>
+  </si>
+  <si>
+    <t>09:35:18:004</t>
+  </si>
+  <si>
+    <t>09:35:18:115</t>
+  </si>
+  <si>
+    <t>09:35:20:682</t>
+  </si>
+  <si>
+    <t>09:35:20:882</t>
+  </si>
+  <si>
+    <t>09:35:26:701</t>
+  </si>
+  <si>
+    <t>09:35:26:923</t>
+  </si>
+  <si>
+    <t>09:35:26:946</t>
+  </si>
+  <si>
+    <t>09:35:27:101</t>
+  </si>
+  <si>
+    <t>09:35:29:400</t>
+  </si>
+  <si>
+    <t>09:35:29:678</t>
+  </si>
+  <si>
+    <t>09:35:32:599</t>
+  </si>
+  <si>
+    <t>09:35:32:843</t>
+  </si>
+  <si>
+    <t>09:35:33:976</t>
+  </si>
+  <si>
+    <t>09:35:33:998</t>
+  </si>
+  <si>
+    <t>09:35:36:619</t>
+  </si>
+  <si>
+    <t>09:35:36:997</t>
+  </si>
+  <si>
+    <t>09:35:39:562</t>
+  </si>
+  <si>
+    <t>09:35:39:840</t>
+  </si>
+  <si>
+    <t>09:35:06</t>
+  </si>
+  <si>
+    <t>09:35:39</t>
+  </si>
+  <si>
+    <t>10:56:06:437</t>
+  </si>
+  <si>
+    <t>10:56:06:482</t>
+  </si>
+  <si>
+    <t>10:56:06:527</t>
+  </si>
+  <si>
+    <t>10:56:06:538</t>
+  </si>
+  <si>
+    <t>10:56:06:560</t>
+  </si>
+  <si>
+    <t>10:56:17:360</t>
+  </si>
+  <si>
+    <t>10:56:17:404</t>
+  </si>
+  <si>
+    <t>10:56:19:526</t>
+  </si>
+  <si>
+    <t>10:56:19:537</t>
+  </si>
+  <si>
+    <t>10:56:25:046</t>
+  </si>
+  <si>
+    <t>10:56:25:145</t>
+  </si>
+  <si>
+    <t>10:56:25:178</t>
+  </si>
+  <si>
+    <t>10:56:25:278</t>
+  </si>
+  <si>
+    <t>10:56:28:222</t>
+  </si>
+  <si>
+    <t>10:56:28:477</t>
+  </si>
+  <si>
+    <t>10:56:31:287</t>
+  </si>
+  <si>
+    <t>10:56:31:320</t>
+  </si>
+  <si>
+    <t>10:56:38:461</t>
+  </si>
+  <si>
+    <t>10:56:40:460</t>
+  </si>
+  <si>
+    <t>10:56:40:505</t>
+  </si>
+  <si>
+    <t>10:56:40:516</t>
+  </si>
+  <si>
+    <t>10:56:42:981</t>
+  </si>
+  <si>
+    <t>10:56:43:104</t>
+  </si>
+  <si>
+    <t>10:56:46:024</t>
+  </si>
+  <si>
+    <t>10:56:48:645</t>
+  </si>
+  <si>
+    <t>10:56:06</t>
+  </si>
+  <si>
+    <t>10:56:48</t>
+  </si>
+  <si>
+    <t>11:41:34:279</t>
+  </si>
+  <si>
+    <t>11:41:34:323</t>
+  </si>
+  <si>
+    <t>11:41:34:324</t>
+  </si>
+  <si>
+    <t>11:41:34:357</t>
+  </si>
+  <si>
+    <t>11:41:34:380</t>
+  </si>
+  <si>
+    <t>11:41:34:401</t>
+  </si>
+  <si>
+    <t>11:41:43:180</t>
+  </si>
+  <si>
+    <t>11:41:43:202</t>
+  </si>
+  <si>
+    <t>11:41:47:622</t>
+  </si>
+  <si>
+    <t>11:41:47:900</t>
+  </si>
+  <si>
+    <t>11:41:52:542</t>
+  </si>
+  <si>
+    <t>11:41:52:576</t>
+  </si>
+  <si>
+    <t>11:41:52:698</t>
+  </si>
+  <si>
+    <t>11:41:52:720</t>
+  </si>
+  <si>
+    <t>11:41:59:417</t>
+  </si>
+  <si>
+    <t>11:41:59:639</t>
+  </si>
+  <si>
+    <t>11:42:04:782</t>
+  </si>
+  <si>
+    <t>11:42:04:804</t>
+  </si>
+  <si>
+    <t>11:42:14:721</t>
+  </si>
+  <si>
+    <t>11:42:14:799</t>
+  </si>
+  <si>
+    <t>11:42:14:821</t>
+  </si>
+  <si>
+    <t>11:42:14:843</t>
+  </si>
+  <si>
+    <t>11:42:14:965</t>
+  </si>
+  <si>
+    <t>11:42:15:021</t>
+  </si>
+  <si>
+    <t>11:42:15:165</t>
+  </si>
+  <si>
+    <t>11:42:15:399</t>
+  </si>
+  <si>
+    <t>11:42:35:001</t>
+  </si>
+  <si>
+    <t>11:42:35:456</t>
+  </si>
+  <si>
+    <t>11:42:41:598</t>
+  </si>
+  <si>
+    <t>11:42:41:697</t>
+  </si>
+  <si>
+    <t>11:42:41:720</t>
+  </si>
+  <si>
+    <t>11:42:42:064</t>
+  </si>
+  <si>
+    <t>11:42:46:684</t>
+  </si>
+  <si>
+    <t>11:42:47:040</t>
+  </si>
+  <si>
+    <t>11:42:50:838</t>
+  </si>
+  <si>
+    <t>11:42:51:260</t>
+  </si>
+  <si>
+    <t>11:41:34</t>
+  </si>
+  <si>
+    <t>11:42:51</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_38_839</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_08_13_456</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_52_822</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_34_882</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_08_20_679</t>
+  </si>
+  <si>
+    <t>U20CV</t>
+  </si>
+  <si>
+    <t>14:07:08:203</t>
+  </si>
+  <si>
+    <t>14:07:08:240</t>
+  </si>
+  <si>
+    <t>14:07:08:260</t>
+  </si>
+  <si>
+    <t>14:07:08:266</t>
+  </si>
+  <si>
+    <t>14:07:08:272</t>
+  </si>
+  <si>
+    <t>14:07:26:824</t>
+  </si>
+  <si>
+    <t>14:07:27:171</t>
+  </si>
+  <si>
+    <t>14:07:30:681</t>
+  </si>
+  <si>
+    <t>14:07:31:012</t>
+  </si>
+  <si>
+    <t>14:07:34:727</t>
+  </si>
+  <si>
+    <t>14:07:34:733</t>
+  </si>
+  <si>
+    <t>14:07:34:833</t>
+  </si>
+  <si>
+    <t>14:07:34:882</t>
+  </si>
+  <si>
+    <t>14:07:38:481</t>
+  </si>
+  <si>
+    <t>14:07:38:839</t>
+  </si>
+  <si>
+    <t>14:07:42:482</t>
+  </si>
+  <si>
+    <t>14:07:42:868</t>
+  </si>
+  <si>
+    <t>14:07:52:680</t>
+  </si>
+  <si>
+    <t>14:07:52:822</t>
+  </si>
+  <si>
+    <t>14:08:12:228</t>
+  </si>
+  <si>
+    <t>14:08:13:379</t>
+  </si>
+  <si>
+    <t>14:08:13:456</t>
+  </si>
+  <si>
+    <t>14:08:20:496</t>
+  </si>
+  <si>
+    <t>14:08:20:679</t>
+  </si>
+  <si>
+    <t>14:07:08</t>
+  </si>
+  <si>
+    <t>14:08:20</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2864,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2437,7 +2895,7 @@
         <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>81</v>
@@ -2516,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">SUM(E3:I3)</f>
+        <f t="shared" ref="J3:J18" si="0">SUM(E3:I3)</f>
         <v>5</v>
       </c>
     </row>
@@ -2531,7 +2989,7 @@
         <v>175</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D19" si="1">C4-B4</f>
+        <f t="shared" ref="D4:D30" si="1">C4-B4</f>
         <v>6.712962962962532E-4</v>
       </c>
       <c r="E4" s="5">
@@ -2997,156 +3455,308 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>704</v>
+      </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>3.8194444444439313E-4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K18" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
+        <v>4.8611111111113159E-4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J30" si="2">SUM(E19:I19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>8.9120370370371349E-4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3333333333324155E-4</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
@@ -9538,9 +10148,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10302,8 +10912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11001,7 +11611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -11218,9 +11828,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12122,7 +12732,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12221,9 +12831,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12921,7 +13531,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13003,6 +13613,2528 @@
       </c>
       <c r="D6" t="s">
         <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:35:06</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C44,LEN(C2)-4)</f>
+        <v>09:35:39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>680</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" t="s">
+        <v>682</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" t="s">
+        <v>685</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>687</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" t="s">
+        <v>687</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>688</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" t="s">
+        <v>690</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>692</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>693</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>694</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33" t="s">
+        <v>694</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>671</v>
+      </c>
+      <c r="C34" t="s">
+        <v>695</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" t="s">
+        <v>696</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C36" t="s">
+        <v>696</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>671</v>
+      </c>
+      <c r="C37" t="s">
+        <v>697</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>671</v>
+      </c>
+      <c r="C38" t="s">
+        <v>698</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>671</v>
+      </c>
+      <c r="C39" t="s">
+        <v>699</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>671</v>
+      </c>
+      <c r="C40" t="s">
+        <v>700</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>671</v>
+      </c>
+      <c r="C41" t="s">
+        <v>700</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
+        <v>701</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>671</v>
+      </c>
+      <c r="C43" t="s">
+        <v>702</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>10:56:06</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C34,LEN(C2)-4)</f>
+        <v>10:56:48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>711</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>712</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>712</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>714</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" t="s">
+        <v>714</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" t="s">
+        <v>716</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" t="s">
+        <v>718</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C22" t="s">
+        <v>719</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>720</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>721</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26" t="s">
+        <v>722</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>724</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>725</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>726</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33" t="s">
+        <v>728</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>671</v>
+      </c>
+      <c r="C34" t="s">
+        <v>729</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>11:41:34</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C48,LEN(C2)-4)</f>
+        <v>11:42:51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" t="s">
+        <v>744</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" t="s">
+        <v>745</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>746</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" t="s">
+        <v>746</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C22" t="s">
+        <v>747</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" t="s">
+        <v>748</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>749</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26" t="s">
+        <v>750</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" t="s">
+        <v>751</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>755</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>756</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33" t="s">
+        <v>757</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>671</v>
+      </c>
+      <c r="C34" t="s">
+        <v>757</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" t="s">
+        <v>758</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C36" t="s">
+        <v>759</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>671</v>
+      </c>
+      <c r="C37" t="s">
+        <v>759</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>671</v>
+      </c>
+      <c r="C38" t="s">
+        <v>760</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>671</v>
+      </c>
+      <c r="C39" t="s">
+        <v>761</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>671</v>
+      </c>
+      <c r="C40" t="s">
+        <v>762</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>671</v>
+      </c>
+      <c r="C41" t="s">
+        <v>763</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
+        <v>763</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>671</v>
+      </c>
+      <c r="C43" t="s">
+        <v>764</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>765</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>671</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>671</v>
+      </c>
+      <c r="C46" t="s">
+        <v>766</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>671</v>
+      </c>
+      <c r="C47" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>671</v>
+      </c>
+      <c r="C48" t="s">
+        <v>767</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -13738,6 +16870,704 @@
       </c>
       <c r="E42" t="s">
         <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:07:08</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C33,LEN(C2)-4)</f>
+        <v>14:08:20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>780</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>783</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>784</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>787</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" t="s">
+        <v>789</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" t="s">
+        <v>791</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" t="s">
+        <v>793</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>794</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26" t="s">
+        <v>794</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>796</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>798</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>799</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33" t="s">
+        <v>799</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701ECAE9-148E-478E-858D-08B0A435FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044334F9-D051-41E4-8515-EA0B1823F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,6 +54,10 @@
     <sheet name="objectsPositionU19CV5" sheetId="39" state="hidden" r:id="rId39"/>
     <sheet name="U20CV5_check_total" sheetId="40" state="hidden" r:id="rId40"/>
     <sheet name="objectsPositionU20CV5" sheetId="41" state="hidden" r:id="rId41"/>
+    <sheet name="U21CV5_check_total" sheetId="42" state="hidden" r:id="rId42"/>
+    <sheet name="objectsPositionU21CV5" sheetId="43" state="hidden" r:id="rId43"/>
+    <sheet name="U22CV5_check_total" sheetId="44" state="hidden" r:id="rId44"/>
+    <sheet name="objectsPositionU22CV5" sheetId="45" state="hidden" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="978">
   <si>
     <t>timestamp</t>
   </si>
@@ -2029,9 +2033,6 @@
     <t>16:31:40</t>
   </si>
   <si>
-    <t>11 su 16</t>
-  </si>
-  <si>
     <t>2021_11_09_09_35_29_678</t>
   </si>
   <si>
@@ -2480,6 +2481,534 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_31_585</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_07_05_642</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_06_01_427</t>
+  </si>
+  <si>
+    <t>U21CV</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Capsule(Clone) true</t>
+  </si>
+  <si>
+    <t>Cube 1(Clone) true</t>
+  </si>
+  <si>
+    <t>Egg(Clone) true</t>
+  </si>
+  <si>
+    <t>Capsule2(Clone) true</t>
+  </si>
+  <si>
+    <t>Cylinder_3(Clone) true</t>
+  </si>
+  <si>
+    <t>Cylinder_3(Clone) false</t>
+  </si>
+  <si>
+    <t>Cube 1(Clone) false</t>
+  </si>
+  <si>
+    <t>Capsule2(Clone) false</t>
+  </si>
+  <si>
+    <t>Capsule(Clone) false</t>
+  </si>
+  <si>
+    <t>Egg(Clone) false</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_27_22_951</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_27_21_063</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_27_13_821</t>
+  </si>
+  <si>
+    <t>U22CV</t>
+  </si>
+  <si>
+    <t>15:05:14:166</t>
+  </si>
+  <si>
+    <t>15:05:14:210</t>
+  </si>
+  <si>
+    <t>15:05:14:233</t>
+  </si>
+  <si>
+    <t>15:05:14:244</t>
+  </si>
+  <si>
+    <t>15:05:25:444</t>
+  </si>
+  <si>
+    <t>15:05:25:466</t>
+  </si>
+  <si>
+    <t>15:05:35:728</t>
+  </si>
+  <si>
+    <t>15:05:35:806</t>
+  </si>
+  <si>
+    <t>15:05:35:872</t>
+  </si>
+  <si>
+    <t>15:05:35:883</t>
+  </si>
+  <si>
+    <t>15:05:40:626</t>
+  </si>
+  <si>
+    <t>15:05:40:925</t>
+  </si>
+  <si>
+    <t>15:05:46:112</t>
+  </si>
+  <si>
+    <t>15:05:46:345</t>
+  </si>
+  <si>
+    <t>15:05:56:185</t>
+  </si>
+  <si>
+    <t>15:05:56:208</t>
+  </si>
+  <si>
+    <t>15:05:56:307</t>
+  </si>
+  <si>
+    <t>15:05:56:352</t>
+  </si>
+  <si>
+    <t>15:06:01:405</t>
+  </si>
+  <si>
+    <t>15:06:01:427</t>
+  </si>
+  <si>
+    <t>15:06:10:967</t>
+  </si>
+  <si>
+    <t>15:06:11:267</t>
+  </si>
+  <si>
+    <t>15:06:14:388</t>
+  </si>
+  <si>
+    <t>15:06:14:688</t>
+  </si>
+  <si>
+    <t>15:06:16:964</t>
+  </si>
+  <si>
+    <t>15:06:16:965</t>
+  </si>
+  <si>
+    <t>15:06:17:209</t>
+  </si>
+  <si>
+    <t>15:06:20:552</t>
+  </si>
+  <si>
+    <t>15:06:20:563</t>
+  </si>
+  <si>
+    <t>15:06:20:607</t>
+  </si>
+  <si>
+    <t>15:06:20:652</t>
+  </si>
+  <si>
+    <t>15:06:20:752</t>
+  </si>
+  <si>
+    <t>15:06:20:785</t>
+  </si>
+  <si>
+    <t>15:06:33:568</t>
+  </si>
+  <si>
+    <t>15:06:33:612</t>
+  </si>
+  <si>
+    <t>15:06:33:624</t>
+  </si>
+  <si>
+    <t>15:06:52:226</t>
+  </si>
+  <si>
+    <t>15:06:52:270</t>
+  </si>
+  <si>
+    <t>15:07:00:711</t>
+  </si>
+  <si>
+    <t>15:07:01:011</t>
+  </si>
+  <si>
+    <t>15:07:05:265</t>
+  </si>
+  <si>
+    <t>15:07:05:364</t>
+  </si>
+  <si>
+    <t>15:07:05:386</t>
+  </si>
+  <si>
+    <t>15:07:05:509</t>
+  </si>
+  <si>
+    <t>15:07:05:531</t>
+  </si>
+  <si>
+    <t>15:07:05:631</t>
+  </si>
+  <si>
+    <t>15:07:05:642</t>
+  </si>
+  <si>
+    <t>15:07:10:662</t>
+  </si>
+  <si>
+    <t>15:07:11:150</t>
+  </si>
+  <si>
+    <t>15:07:11:173</t>
+  </si>
+  <si>
+    <t>15:07:11:206</t>
+  </si>
+  <si>
+    <t>15:07:11:783</t>
+  </si>
+  <si>
+    <t>15:07:11:806</t>
+  </si>
+  <si>
+    <t>15:07:11:828</t>
+  </si>
+  <si>
+    <t>15:07:12:005</t>
+  </si>
+  <si>
+    <t>15:07:12:006</t>
+  </si>
+  <si>
+    <t>15:07:12:605</t>
+  </si>
+  <si>
+    <t>15:07:12:872</t>
+  </si>
+  <si>
+    <t>15:07:17:747</t>
+  </si>
+  <si>
+    <t>15:07:18:025</t>
+  </si>
+  <si>
+    <t>15:07:20:590</t>
+  </si>
+  <si>
+    <t>15:07:20:624</t>
+  </si>
+  <si>
+    <t>15:07:20:646</t>
+  </si>
+  <si>
+    <t>15:07:20:813</t>
+  </si>
+  <si>
+    <t>15:07:20:846</t>
+  </si>
+  <si>
+    <t>15:07:20:868</t>
+  </si>
+  <si>
+    <t>15:07:23:345</t>
+  </si>
+  <si>
+    <t>15:07:23:645</t>
+  </si>
+  <si>
+    <t>15:07:23:689</t>
+  </si>
+  <si>
+    <t>15:07:23:711</t>
+  </si>
+  <si>
+    <t>15:07:23:712</t>
+  </si>
+  <si>
+    <t>15:07:24:267</t>
+  </si>
+  <si>
+    <t>15:07:31:263</t>
+  </si>
+  <si>
+    <t>15:07:31:508</t>
+  </si>
+  <si>
+    <t>15:07:31:552</t>
+  </si>
+  <si>
+    <t>15:07:31:585</t>
+  </si>
+  <si>
+    <t>15:05:14</t>
+  </si>
+  <si>
+    <t>15:07:31</t>
+  </si>
+  <si>
+    <t>16:26:53:270</t>
+  </si>
+  <si>
+    <t>16:26:53:304</t>
+  </si>
+  <si>
+    <t>16:26:53:348</t>
+  </si>
+  <si>
+    <t>16:26:53:370</t>
+  </si>
+  <si>
+    <t>16:26:53:381</t>
+  </si>
+  <si>
+    <t>16:26:59:084</t>
+  </si>
+  <si>
+    <t>16:26:59:284</t>
+  </si>
+  <si>
+    <t>16:27:01:782</t>
+  </si>
+  <si>
+    <t>16:27:01:783</t>
+  </si>
+  <si>
+    <t>16:27:01:805</t>
+  </si>
+  <si>
+    <t>16:27:04:370</t>
+  </si>
+  <si>
+    <t>16:27:04:503</t>
+  </si>
+  <si>
+    <t>16:27:04:526</t>
+  </si>
+  <si>
+    <t>16:27:04:548</t>
+  </si>
+  <si>
+    <t>16:27:06:547</t>
+  </si>
+  <si>
+    <t>16:27:06:680</t>
+  </si>
+  <si>
+    <t>16:27:08:802</t>
+  </si>
+  <si>
+    <t>16:27:08:969</t>
+  </si>
+  <si>
+    <t>16:27:13:821</t>
+  </si>
+  <si>
+    <t>16:27:16:465</t>
+  </si>
+  <si>
+    <t>16:27:19:341</t>
+  </si>
+  <si>
+    <t>16:27:21:063</t>
+  </si>
+  <si>
+    <t>16:27:22:829</t>
+  </si>
+  <si>
+    <t>16:27:22:951</t>
+  </si>
+  <si>
+    <t>16:26:53</t>
+  </si>
+  <si>
+    <t>16:27:22</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +3035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2516,6 +3045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,7 +3067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2547,6 +3082,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2861,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851F44A9-1D6D-47A4-A894-31339CD535A6}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2878,7 +3417,7 @@
     <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +3449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -2943,8 +3482,9 @@
         <f>SUM(E2:I2)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2977,8 +3517,9 @@
         <f t="shared" ref="J3:J18" si="0">SUM(E3:I3)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>146</v>
       </c>
@@ -3011,8 +3552,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>195</v>
       </c>
@@ -3045,8 +3587,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>243</v>
       </c>
@@ -3080,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>280</v>
       </c>
@@ -3114,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>284</v>
       </c>
@@ -3148,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>292</v>
       </c>
@@ -3182,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>373</v>
       </c>
@@ -3216,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>378</v>
       </c>
@@ -3249,8 +3792,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>298</v>
       </c>
@@ -3283,8 +3827,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>304</v>
       </c>
@@ -3317,8 +3862,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>499</v>
       </c>
@@ -3351,8 +3897,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>506</v>
       </c>
@@ -3385,8 +3932,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>511</v>
       </c>
@@ -3419,8 +3967,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>518</v>
       </c>
@@ -3453,16 +4002,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>704</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -3487,19 +4037,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K18" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -3524,16 +4072,17 @@
         <f t="shared" ref="J19:J30" si="2">SUM(E19:I19)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="1"/>
@@ -3558,37 +4107,37 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K20" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K20" s="9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>800</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>801</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>8.3333333333324155E-4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>1</v>
       </c>
       <c r="J21">
@@ -3596,43 +4145,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>951</v>
+      </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+        <v>1.585648148148211E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>977</v>
+      </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+        <v>3.3564814814801558E-4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3650,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3668,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3686,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3704,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3722,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3740,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3758,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3769,7 +4355,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -13650,13 +14236,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>78</v>
@@ -13667,13 +14253,13 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>82</v>
@@ -13684,13 +14270,13 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>81</v>
@@ -13701,13 +14287,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>82</v>
@@ -13718,13 +14304,13 @@
         <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>83</v>
@@ -13761,16 +14347,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
         <v>671</v>
-      </c>
-      <c r="C2" t="s">
-        <v>672</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(C2,LEN(C2)-4)</f>
@@ -13786,16 +14372,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D3" t="s">
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -13803,16 +14389,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -13820,16 +14406,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -13837,16 +14423,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -13854,16 +14440,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -13871,16 +14457,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -13888,16 +14474,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -13905,16 +14491,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -13922,16 +14508,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -13939,16 +14525,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -13956,16 +14542,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -13973,16 +14559,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -13990,16 +14576,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -14007,16 +14593,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -14024,16 +14610,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -14041,16 +14627,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -14058,16 +14644,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -14075,16 +14661,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -14092,16 +14678,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -14109,16 +14695,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -14126,16 +14712,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D23" t="s">
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -14143,16 +14729,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -14160,16 +14746,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -14177,16 +14763,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -14194,16 +14780,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -14211,16 +14797,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -14228,16 +14814,16 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D29" t="s">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -14245,16 +14831,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -14262,16 +14848,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -14279,16 +14865,16 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D32" t="s">
         <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -14296,16 +14882,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -14313,16 +14899,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D34" t="s">
         <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -14330,16 +14916,16 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -14347,16 +14933,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -14364,16 +14950,16 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D37" t="s">
         <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -14381,16 +14967,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D38" t="s">
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -14398,16 +14984,16 @@
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -14415,16 +15001,16 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D40" t="s">
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -14432,16 +15018,16 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -14449,16 +15035,16 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -14466,16 +15052,16 @@
         <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D43" t="s">
         <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -14483,16 +15069,16 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -14530,7 +15116,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -14547,7 +15133,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
@@ -14564,7 +15150,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -14581,7 +15167,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -14598,7 +15184,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -14641,16 +15227,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(C2,LEN(C2)-4)</f>
@@ -14666,16 +15252,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D3" t="s">
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -14683,16 +15269,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -14700,16 +15286,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -14717,16 +15303,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -14734,16 +15320,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -14751,16 +15337,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D8" t="s">
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -14768,16 +15354,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -14785,16 +15371,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -14802,16 +15388,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -14819,16 +15405,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -14836,16 +15422,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -14853,16 +15439,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -14870,16 +15456,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -14887,16 +15473,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -14904,16 +15490,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -14921,16 +15507,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -14938,16 +15524,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -14955,16 +15541,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -14972,16 +15558,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -14989,16 +15575,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -15006,16 +15592,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D23" t="s">
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -15023,16 +15609,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -15040,16 +15626,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -15057,16 +15643,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -15074,16 +15660,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -15091,16 +15677,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -15108,16 +15694,16 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D29" t="s">
         <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -15125,16 +15711,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -15142,16 +15728,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D31" t="s">
         <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -15159,16 +15745,16 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -15176,16 +15762,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -15193,16 +15779,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -15239,7 +15825,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -15253,7 +15839,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -15267,7 +15853,7 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -15281,7 +15867,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -15295,7 +15881,7 @@
         <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -15335,16 +15921,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(C2,LEN(C2)-4)</f>
@@ -15360,16 +15946,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D3" t="s">
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -15377,16 +15963,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -15394,16 +15980,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -15411,16 +15997,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -15428,16 +16014,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -15445,16 +16031,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D8" t="s">
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -15462,16 +16048,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -15479,16 +16065,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -15496,16 +16082,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -15513,16 +16099,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -15530,16 +16116,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D13" t="s">
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -15547,16 +16133,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -15564,16 +16150,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -15581,16 +16167,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -15598,16 +16184,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -15615,16 +16201,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -15632,16 +16218,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -15649,16 +16235,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -15666,16 +16252,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -15683,16 +16269,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -15700,16 +16286,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D23" t="s">
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -15717,16 +16303,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -15734,16 +16320,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -15751,16 +16337,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -15768,16 +16354,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -15785,16 +16371,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -15802,16 +16388,16 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D29" t="s">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -15819,16 +16405,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -15836,16 +16422,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D31" t="s">
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -15853,16 +16439,16 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -15870,16 +16456,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D33" t="s">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -15887,16 +16473,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D34" t="s">
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -15904,16 +16490,16 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -15921,16 +16507,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D36" t="s">
         <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -15938,16 +16524,16 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D37" t="s">
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -15955,16 +16541,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D38" t="s">
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -15972,16 +16558,16 @@
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D39" t="s">
         <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -15989,16 +16575,16 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D40" t="s">
         <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -16006,16 +16592,16 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C41" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D41" t="s">
         <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -16023,16 +16609,16 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -16040,16 +16626,16 @@
         <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C43" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -16057,16 +16643,16 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C44" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -16074,16 +16660,16 @@
         <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D45" t="s">
         <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -16091,16 +16677,16 @@
         <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C46" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -16108,16 +16694,16 @@
         <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D47" t="s">
         <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -16125,16 +16711,16 @@
         <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C48" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -16887,9 +17473,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -16908,7 +17494,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -16925,7 +17511,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -16942,7 +17528,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -16959,7 +17545,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -16976,7 +17562,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -17003,8 +17589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17023,16 +17609,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(C2,LEN(C2)-4)</f>
@@ -17048,16 +17634,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D3" t="s">
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -17065,16 +17651,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -17082,16 +17668,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -17099,16 +17685,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -17116,16 +17702,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D7" t="s">
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -17133,16 +17719,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -17150,16 +17736,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -17167,16 +17753,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D10" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -17184,16 +17770,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D11" t="s">
         <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -17201,16 +17787,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D12" t="s">
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -17218,16 +17804,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -17235,16 +17821,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D14" t="s">
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -17252,16 +17838,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -17269,16 +17855,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D16" t="s">
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -17286,16 +17872,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -17303,16 +17889,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -17320,16 +17906,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D19" t="s">
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -17337,16 +17923,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D20" t="s">
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -17354,16 +17940,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D21" t="s">
         <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -17371,16 +17957,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D22" t="s">
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -17388,16 +17974,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D23" t="s">
         <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -17405,16 +17991,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D24" t="s">
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -17422,16 +18008,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -17439,16 +18025,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -17456,16 +18042,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -17473,16 +18059,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -17490,16 +18076,16 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D29" t="s">
         <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -17507,16 +18093,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -17524,16 +18110,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -17541,16 +18127,16 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D32" t="s">
         <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -17558,16 +18144,2648 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>775</v>
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:G107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D2:D107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:05:14</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C107,LEN(C2)-4)</f>
+        <v>15:07:31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D3" t="s">
+        <v>859</v>
+      </c>
+      <c r="E3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>875</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D7" t="s">
+        <v>861</v>
+      </c>
+      <c r="E7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
+        <v>877</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" t="s">
+        <v>877</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
+        <v>878</v>
+      </c>
+      <c r="D11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
+        <v>879</v>
+      </c>
+      <c r="D12" t="s">
+        <v>864</v>
+      </c>
+      <c r="E12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" t="s">
+        <v>880</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" t="s">
+        <v>880</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" t="s">
+        <v>881</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>670</v>
+      </c>
+      <c r="C16" t="s">
+        <v>882</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>670</v>
+      </c>
+      <c r="C17" t="s">
+        <v>883</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>670</v>
+      </c>
+      <c r="C18" t="s">
+        <v>884</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" t="s">
+        <v>884</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>885</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>670</v>
+      </c>
+      <c r="C21" t="s">
+        <v>886</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22" t="s">
+        <v>886</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>670</v>
+      </c>
+      <c r="C23" t="s">
+        <v>887</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C24" t="s">
+        <v>888</v>
+      </c>
+      <c r="D24" t="s">
+        <v>865</v>
+      </c>
+      <c r="E24" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C25" t="s">
+        <v>888</v>
+      </c>
+      <c r="D25" t="s">
+        <v>860</v>
+      </c>
+      <c r="E25" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" t="s">
+        <v>889</v>
+      </c>
+      <c r="D26" t="s">
+        <v>865</v>
+      </c>
+      <c r="E26" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>890</v>
+      </c>
+      <c r="D27" t="s">
+        <v>860</v>
+      </c>
+      <c r="E27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>670</v>
+      </c>
+      <c r="C28" t="s">
+        <v>891</v>
+      </c>
+      <c r="D28" t="s">
+        <v>865</v>
+      </c>
+      <c r="E28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" t="s">
+        <v>892</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>670</v>
+      </c>
+      <c r="C30" t="s">
+        <v>892</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>670</v>
+      </c>
+      <c r="C31" t="s">
+        <v>893</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>670</v>
+      </c>
+      <c r="C32" t="s">
+        <v>894</v>
+      </c>
+      <c r="D32" t="s">
+        <v>866</v>
+      </c>
+      <c r="E32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>670</v>
+      </c>
+      <c r="C33" t="s">
+        <v>894</v>
+      </c>
+      <c r="D33" t="s">
+        <v>862</v>
+      </c>
+      <c r="E33" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34" t="s">
+        <v>895</v>
+      </c>
+      <c r="D34" t="s">
+        <v>866</v>
+      </c>
+      <c r="E34" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" t="s">
+        <v>896</v>
+      </c>
+      <c r="D35" t="s">
+        <v>867</v>
+      </c>
+      <c r="E35" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36" t="s">
+        <v>896</v>
+      </c>
+      <c r="D36" t="s">
+        <v>859</v>
+      </c>
+      <c r="E36" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>670</v>
+      </c>
+      <c r="C37" t="s">
+        <v>897</v>
+      </c>
+      <c r="D37" t="s">
+        <v>867</v>
+      </c>
+      <c r="E37" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C38" t="s">
+        <v>898</v>
+      </c>
+      <c r="D38" t="s">
+        <v>868</v>
+      </c>
+      <c r="E38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>670</v>
+      </c>
+      <c r="C39" t="s">
+        <v>899</v>
+      </c>
+      <c r="D39" t="s">
+        <v>861</v>
+      </c>
+      <c r="E39" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>670</v>
+      </c>
+      <c r="C40" t="s">
+        <v>900</v>
+      </c>
+      <c r="D40" t="s">
+        <v>868</v>
+      </c>
+      <c r="E40" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>670</v>
+      </c>
+      <c r="C41" t="s">
+        <v>901</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>670</v>
+      </c>
+      <c r="C42" t="s">
+        <v>901</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>670</v>
+      </c>
+      <c r="C43" t="s">
+        <v>902</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>670</v>
+      </c>
+      <c r="C44" t="s">
+        <v>903</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>670</v>
+      </c>
+      <c r="C45" t="s">
+        <v>904</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>670</v>
+      </c>
+      <c r="C46" t="s">
+        <v>905</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>670</v>
+      </c>
+      <c r="C47" t="s">
+        <v>906</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" t="s">
+        <v>907</v>
+      </c>
+      <c r="D48" t="s">
+        <v>863</v>
+      </c>
+      <c r="E48" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>670</v>
+      </c>
+      <c r="C49" t="s">
+        <v>908</v>
+      </c>
+      <c r="D49" t="s">
+        <v>864</v>
+      </c>
+      <c r="E49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>670</v>
+      </c>
+      <c r="C50" t="s">
+        <v>909</v>
+      </c>
+      <c r="D50" t="s">
+        <v>863</v>
+      </c>
+      <c r="E50" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>670</v>
+      </c>
+      <c r="C51" t="s">
+        <v>910</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>670</v>
+      </c>
+      <c r="C52" t="s">
+        <v>911</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>670</v>
+      </c>
+      <c r="C53" t="s">
+        <v>911</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C54" t="s">
+        <v>912</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" t="s">
+        <v>913</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" t="s">
+        <v>913</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>810</v>
+      </c>
+      <c r="B57" t="s">
+        <v>670</v>
+      </c>
+      <c r="C57" t="s">
+        <v>914</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>811</v>
+      </c>
+      <c r="B58" t="s">
+        <v>670</v>
+      </c>
+      <c r="C58" t="s">
+        <v>915</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>812</v>
+      </c>
+      <c r="B59" t="s">
+        <v>670</v>
+      </c>
+      <c r="C59" t="s">
+        <v>916</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>813</v>
+      </c>
+      <c r="B60" t="s">
+        <v>670</v>
+      </c>
+      <c r="C60" t="s">
+        <v>917</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>814</v>
+      </c>
+      <c r="B61" t="s">
+        <v>670</v>
+      </c>
+      <c r="C61" t="s">
+        <v>918</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>670</v>
+      </c>
+      <c r="C62" t="s">
+        <v>919</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>816</v>
+      </c>
+      <c r="B63" t="s">
+        <v>670</v>
+      </c>
+      <c r="C63" t="s">
+        <v>919</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>817</v>
+      </c>
+      <c r="B64" t="s">
+        <v>670</v>
+      </c>
+      <c r="C64" t="s">
+        <v>920</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>803</v>
+      </c>
+      <c r="B65" t="s">
+        <v>670</v>
+      </c>
+      <c r="C65" t="s">
+        <v>920</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>818</v>
+      </c>
+      <c r="B66" t="s">
+        <v>670</v>
+      </c>
+      <c r="C66" t="s">
+        <v>921</v>
+      </c>
+      <c r="D66" t="s">
+        <v>862</v>
+      </c>
+      <c r="E66" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>819</v>
+      </c>
+      <c r="B67" t="s">
+        <v>670</v>
+      </c>
+      <c r="C67" t="s">
+        <v>922</v>
+      </c>
+      <c r="D67" t="s">
+        <v>866</v>
+      </c>
+      <c r="E67" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>820</v>
+      </c>
+      <c r="B68" t="s">
+        <v>670</v>
+      </c>
+      <c r="C68" t="s">
+        <v>922</v>
+      </c>
+      <c r="D68" t="s">
+        <v>862</v>
+      </c>
+      <c r="E68" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>821</v>
+      </c>
+      <c r="B69" t="s">
+        <v>670</v>
+      </c>
+      <c r="C69" t="s">
+        <v>923</v>
+      </c>
+      <c r="D69" t="s">
+        <v>866</v>
+      </c>
+      <c r="E69" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>822</v>
+      </c>
+      <c r="B70" t="s">
+        <v>670</v>
+      </c>
+      <c r="C70" t="s">
+        <v>924</v>
+      </c>
+      <c r="D70" t="s">
+        <v>862</v>
+      </c>
+      <c r="E70" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>823</v>
+      </c>
+      <c r="B71" t="s">
+        <v>670</v>
+      </c>
+      <c r="C71" t="s">
+        <v>925</v>
+      </c>
+      <c r="D71" t="s">
+        <v>866</v>
+      </c>
+      <c r="E71" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>824</v>
+      </c>
+      <c r="B72" t="s">
+        <v>670</v>
+      </c>
+      <c r="C72" t="s">
+        <v>925</v>
+      </c>
+      <c r="D72" t="s">
+        <v>862</v>
+      </c>
+      <c r="E72" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>825</v>
+      </c>
+      <c r="B73" t="s">
+        <v>670</v>
+      </c>
+      <c r="C73" t="s">
+        <v>926</v>
+      </c>
+      <c r="D73" t="s">
+        <v>866</v>
+      </c>
+      <c r="E73" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>826</v>
+      </c>
+      <c r="B74" t="s">
+        <v>670</v>
+      </c>
+      <c r="C74" t="s">
+        <v>927</v>
+      </c>
+      <c r="D74" t="s">
+        <v>862</v>
+      </c>
+      <c r="E74" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>827</v>
+      </c>
+      <c r="B75" t="s">
+        <v>670</v>
+      </c>
+      <c r="C75" t="s">
+        <v>928</v>
+      </c>
+      <c r="D75" t="s">
+        <v>866</v>
+      </c>
+      <c r="E75" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>828</v>
+      </c>
+      <c r="B76" t="s">
+        <v>670</v>
+      </c>
+      <c r="C76" t="s">
+        <v>929</v>
+      </c>
+      <c r="D76" t="s">
+        <v>862</v>
+      </c>
+      <c r="E76" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>829</v>
+      </c>
+      <c r="B77" t="s">
+        <v>670</v>
+      </c>
+      <c r="C77" t="s">
+        <v>930</v>
+      </c>
+      <c r="D77" t="s">
+        <v>866</v>
+      </c>
+      <c r="E77" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>670</v>
+      </c>
+      <c r="C78" t="s">
+        <v>930</v>
+      </c>
+      <c r="D78" t="s">
+        <v>862</v>
+      </c>
+      <c r="E78" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>831</v>
+      </c>
+      <c r="B79" t="s">
+        <v>670</v>
+      </c>
+      <c r="C79" t="s">
+        <v>931</v>
+      </c>
+      <c r="D79" t="s">
+        <v>866</v>
+      </c>
+      <c r="E79" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>832</v>
+      </c>
+      <c r="B80" t="s">
+        <v>670</v>
+      </c>
+      <c r="C80" t="s">
+        <v>931</v>
+      </c>
+      <c r="D80" t="s">
+        <v>862</v>
+      </c>
+      <c r="E80" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>833</v>
+      </c>
+      <c r="B81" t="s">
+        <v>670</v>
+      </c>
+      <c r="C81" t="s">
+        <v>932</v>
+      </c>
+      <c r="D81" t="s">
+        <v>859</v>
+      </c>
+      <c r="E81" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>834</v>
+      </c>
+      <c r="B82" t="s">
+        <v>670</v>
+      </c>
+      <c r="C82" t="s">
+        <v>933</v>
+      </c>
+      <c r="D82" t="s">
+        <v>867</v>
+      </c>
+      <c r="E82" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>835</v>
+      </c>
+      <c r="B83" t="s">
+        <v>670</v>
+      </c>
+      <c r="C83" t="s">
+        <v>933</v>
+      </c>
+      <c r="D83" t="s">
+        <v>859</v>
+      </c>
+      <c r="E83" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>836</v>
+      </c>
+      <c r="B84" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" t="s">
+        <v>934</v>
+      </c>
+      <c r="D84" t="s">
+        <v>861</v>
+      </c>
+      <c r="E84" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>837</v>
+      </c>
+      <c r="B85" t="s">
+        <v>670</v>
+      </c>
+      <c r="C85" t="s">
+        <v>935</v>
+      </c>
+      <c r="D85" t="s">
+        <v>868</v>
+      </c>
+      <c r="E85" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>838</v>
+      </c>
+      <c r="B86" t="s">
+        <v>670</v>
+      </c>
+      <c r="C86" t="s">
+        <v>936</v>
+      </c>
+      <c r="D86" t="s">
+        <v>861</v>
+      </c>
+      <c r="E86" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>839</v>
+      </c>
+      <c r="B87" t="s">
+        <v>670</v>
+      </c>
+      <c r="C87" t="s">
+        <v>937</v>
+      </c>
+      <c r="D87" t="s">
+        <v>868</v>
+      </c>
+      <c r="E87" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>840</v>
+      </c>
+      <c r="B88" t="s">
+        <v>670</v>
+      </c>
+      <c r="C88" t="s">
+        <v>937</v>
+      </c>
+      <c r="D88" t="s">
+        <v>861</v>
+      </c>
+      <c r="E88" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>841</v>
+      </c>
+      <c r="B89" t="s">
+        <v>670</v>
+      </c>
+      <c r="C89" t="s">
+        <v>938</v>
+      </c>
+      <c r="D89" t="s">
+        <v>868</v>
+      </c>
+      <c r="E89" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>842</v>
+      </c>
+      <c r="B90" t="s">
+        <v>670</v>
+      </c>
+      <c r="C90" t="s">
+        <v>938</v>
+      </c>
+      <c r="D90" t="s">
+        <v>861</v>
+      </c>
+      <c r="E90" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>843</v>
+      </c>
+      <c r="B91" t="s">
+        <v>670</v>
+      </c>
+      <c r="C91" t="s">
+        <v>939</v>
+      </c>
+      <c r="D91" t="s">
+        <v>868</v>
+      </c>
+      <c r="E91" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B92" t="s">
+        <v>670</v>
+      </c>
+      <c r="C92" t="s">
+        <v>939</v>
+      </c>
+      <c r="D92" t="s">
+        <v>861</v>
+      </c>
+      <c r="E92" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>845</v>
+      </c>
+      <c r="B93" t="s">
+        <v>670</v>
+      </c>
+      <c r="C93" t="s">
+        <v>940</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>846</v>
+      </c>
+      <c r="B94" t="s">
+        <v>670</v>
+      </c>
+      <c r="C94" t="s">
+        <v>941</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>847</v>
+      </c>
+      <c r="B95" t="s">
+        <v>670</v>
+      </c>
+      <c r="C95" t="s">
+        <v>941</v>
+      </c>
+      <c r="D95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>848</v>
+      </c>
+      <c r="B96" t="s">
+        <v>670</v>
+      </c>
+      <c r="C96" t="s">
+        <v>942</v>
+      </c>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>849</v>
+      </c>
+      <c r="B97" t="s">
+        <v>670</v>
+      </c>
+      <c r="C97" t="s">
+        <v>942</v>
+      </c>
+      <c r="D97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>850</v>
+      </c>
+      <c r="B98" t="s">
+        <v>670</v>
+      </c>
+      <c r="C98" t="s">
+        <v>943</v>
+      </c>
+      <c r="D98" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>851</v>
+      </c>
+      <c r="B99" t="s">
+        <v>670</v>
+      </c>
+      <c r="C99" t="s">
+        <v>944</v>
+      </c>
+      <c r="D99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>852</v>
+      </c>
+      <c r="B100" t="s">
+        <v>670</v>
+      </c>
+      <c r="C100" t="s">
+        <v>945</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>853</v>
+      </c>
+      <c r="B101" t="s">
+        <v>670</v>
+      </c>
+      <c r="C101" t="s">
+        <v>946</v>
+      </c>
+      <c r="D101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>854</v>
+      </c>
+      <c r="B102" t="s">
+        <v>670</v>
+      </c>
+      <c r="C102" t="s">
+        <v>947</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>855</v>
+      </c>
+      <c r="B103" t="s">
+        <v>670</v>
+      </c>
+      <c r="C103" t="s">
+        <v>947</v>
+      </c>
+      <c r="D103" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>856</v>
+      </c>
+      <c r="B104" t="s">
+        <v>670</v>
+      </c>
+      <c r="C104" t="s">
+        <v>948</v>
+      </c>
+      <c r="D104" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>857</v>
+      </c>
+      <c r="B105" t="s">
+        <v>670</v>
+      </c>
+      <c r="C105" t="s">
+        <v>948</v>
+      </c>
+      <c r="D105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>858</v>
+      </c>
+      <c r="B106" t="s">
+        <v>670</v>
+      </c>
+      <c r="C106" t="s">
+        <v>949</v>
+      </c>
+      <c r="D106" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>802</v>
+      </c>
+      <c r="B107" t="s">
+        <v>670</v>
+      </c>
+      <c r="C107" t="s">
+        <v>949</v>
+      </c>
+      <c r="D107" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" t="s">
+        <v>809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D2:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:26:53</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C32,LEN(C2)-4)</f>
+        <v>16:27:22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" t="s">
+        <v>954</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>954</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" t="s">
+        <v>955</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
+        <v>956</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
+        <v>957</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" t="s">
+        <v>957</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
+        <v>958</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
+        <v>959</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" t="s">
+        <v>960</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" t="s">
+        <v>961</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>670</v>
+      </c>
+      <c r="C16" t="s">
+        <v>962</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>670</v>
+      </c>
+      <c r="C17" t="s">
+        <v>963</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>670</v>
+      </c>
+      <c r="C18" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>966</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>670</v>
+      </c>
+      <c r="C21" t="s">
+        <v>966</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22" t="s">
+        <v>967</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>670</v>
+      </c>
+      <c r="C23" t="s">
+        <v>968</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C24" t="s">
+        <v>968</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" t="s">
+        <v>970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>971</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>670</v>
+      </c>
+      <c r="C28" t="s">
+        <v>972</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" t="s">
+        <v>973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>670</v>
+      </c>
+      <c r="C30" t="s">
+        <v>974</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>670</v>
+      </c>
+      <c r="C31" t="s">
+        <v>975</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>670</v>
+      </c>
+      <c r="C32" t="s">
+        <v>975</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044334F9-D051-41E4-8515-EA0B1823F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F7BC2-8894-4D79-9DD6-5F1B14EA62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="2700" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV5" sheetId="3" r:id="rId1"/>
@@ -3067,7 +3067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3086,6 +3086,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3403,7 +3406,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3418,692 +3421,692 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <f>C2-B2</f>
         <v>4.166666666667318E-4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f>SUM(E2:I2)</f>
         <v>5</v>
       </c>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="7">
         <f>C3-B3</f>
         <v>3.2407407407408773E-4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J18" si="0">SUM(E3:I3)</f>
         <v>5</v>
       </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D30" si="1">C4-B4</f>
         <v>6.712962962962532E-4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>5.2083333333341475E-4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>0.43957175925925923</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>0.44002314814814819</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>4.5138888888895945E-4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>328</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>5.4398148148154801E-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>4.5138888888895945E-4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>367</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>1.8518518518517713E-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>395</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>5.0925925925937587E-4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>429</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>4.1666666666662078E-4</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>468</v>
       </c>
       <c r="D13" s="7">
         <f>C13-B13</f>
         <v>3.8194444444439313E-4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>549</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>4.1666666666662078E-4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>581</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>5.6712962962968128E-4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>622</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>4.745370370370372E-4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="10">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>651</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>703</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>3.8194444444439313E-4</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="10">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="10">
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>730</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>4.8611111111113159E-4</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <f t="shared" ref="J19:J30" si="2">SUM(E19:I19)</f>
         <v>5</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>768</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>8.9120370370371349E-4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4112,104 +4115,104 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>800</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>8.3333333333324155E-4</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>951</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>1.585648148148211E-3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="10">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>977</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
         <v>3.3564814814801558E-4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="10">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>

--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F7BC2-8894-4D79-9DD6-5F1B14EA62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268FE4A-913F-4B2E-A464-6960AF0500AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="2700" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV5" sheetId="3" r:id="rId1"/>
@@ -58,6 +58,8 @@
     <sheet name="objectsPositionU21CV5" sheetId="43" state="hidden" r:id="rId43"/>
     <sheet name="U22CV5_check_total" sheetId="44" state="hidden" r:id="rId44"/>
     <sheet name="objectsPositionU22CV5" sheetId="45" state="hidden" r:id="rId45"/>
+    <sheet name="U23CV5_check_total" sheetId="46" state="hidden" r:id="rId46"/>
+    <sheet name="objectsPositionU23CV5" sheetId="47" state="hidden" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5473" uniqueCount="1022">
   <si>
     <t>timestamp</t>
   </si>
@@ -3009,6 +3011,138 @@
   </si>
   <si>
     <t>16:27:22</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_41_05_009</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_41_02_732</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_41_15_038</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_40_54_314</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_41_12_217</t>
+  </si>
+  <si>
+    <t>U23CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_</t>
+  </si>
+  <si>
+    <t>09:40:29:510</t>
+  </si>
+  <si>
+    <t>09:40:29:554</t>
+  </si>
+  <si>
+    <t>09:40:29:598</t>
+  </si>
+  <si>
+    <t>09:40:29:609</t>
+  </si>
+  <si>
+    <t>09:40:29:631</t>
+  </si>
+  <si>
+    <t>09:40:32:857</t>
+  </si>
+  <si>
+    <t>09:40:32:890</t>
+  </si>
+  <si>
+    <t>09:40:32:912</t>
+  </si>
+  <si>
+    <t>09:40:33:290</t>
+  </si>
+  <si>
+    <t>09:40:36:811</t>
+  </si>
+  <si>
+    <t>09:40:37:233</t>
+  </si>
+  <si>
+    <t>09:40:40:498</t>
+  </si>
+  <si>
+    <t>09:40:40:532</t>
+  </si>
+  <si>
+    <t>09:40:40:554</t>
+  </si>
+  <si>
+    <t>09:40:40:776</t>
+  </si>
+  <si>
+    <t>09:40:44:152</t>
+  </si>
+  <si>
+    <t>09:40:44:474</t>
+  </si>
+  <si>
+    <t>09:40:47:051</t>
+  </si>
+  <si>
+    <t>09:40:47:473</t>
+  </si>
+  <si>
+    <t>09:40:54:314</t>
+  </si>
+  <si>
+    <t>09:40:58:012</t>
+  </si>
+  <si>
+    <t>09:41:02:477</t>
+  </si>
+  <si>
+    <t>09:41:02:510</t>
+  </si>
+  <si>
+    <t>09:41:02:555</t>
+  </si>
+  <si>
+    <t>09:41:02:577</t>
+  </si>
+  <si>
+    <t>09:41:02:588</t>
+  </si>
+  <si>
+    <t>09:41:02:732</t>
+  </si>
+  <si>
+    <t>09:41:03:910</t>
+  </si>
+  <si>
+    <t>09:41:04:076</t>
+  </si>
+  <si>
+    <t>09:41:04:832</t>
+  </si>
+  <si>
+    <t>09:41:05:009</t>
+  </si>
+  <si>
+    <t>09:41:12:195</t>
+  </si>
+  <si>
+    <t>09:41:12:217</t>
+  </si>
+  <si>
+    <t>09:41:14:838</t>
+  </si>
+  <si>
+    <t>09:41:15:038</t>
+  </si>
+  <si>
+    <t>09:40:29</t>
+  </si>
+  <si>
+    <t>09:41:15</t>
   </si>
 </sst>
 </file>
@@ -3406,7 +3540,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4217,26 +4351,44 @@
         <v>5</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="8">
-        <v>15</v>
-      </c>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1021</v>
+      </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>5.3240740740739811E-4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -18174,8 +18326,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18289,8 +18441,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20129,8 +20281,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20241,8 +20393,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20789,6 +20941,936 @@
       </c>
       <c r="E32" t="s">
         <v>873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>983</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:40:29</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C48,LEN(C2)-4)</f>
+        <v>09:41:15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>984</v>
+      </c>
+      <c r="C5" t="s">
+        <v>987</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C7" t="s">
+        <v>988</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>990</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>984</v>
+      </c>
+      <c r="C10" t="s">
+        <v>990</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>984</v>
+      </c>
+      <c r="C11" t="s">
+        <v>991</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>984</v>
+      </c>
+      <c r="C12" t="s">
+        <v>992</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C13" t="s">
+        <v>993</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>984</v>
+      </c>
+      <c r="C14" t="s">
+        <v>994</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>984</v>
+      </c>
+      <c r="C15" t="s">
+        <v>994</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>984</v>
+      </c>
+      <c r="C16" t="s">
+        <v>995</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>984</v>
+      </c>
+      <c r="C17" t="s">
+        <v>996</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>984</v>
+      </c>
+      <c r="C18" t="s">
+        <v>996</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>984</v>
+      </c>
+      <c r="C19" t="s">
+        <v>997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>984</v>
+      </c>
+      <c r="C20" t="s">
+        <v>998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>984</v>
+      </c>
+      <c r="C21" t="s">
+        <v>999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>984</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>984</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>984</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>984</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>984</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>984</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>984</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>984</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>984</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>984</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>984</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>984</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>984</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>984</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>984</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>984</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>984</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>984</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>984</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>984</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>984</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>984</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>984</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>984</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>984</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
@@ -60,6 +60,14 @@
     <sheet name="objectsPositionU22CV5" sheetId="45" state="hidden" r:id="rId45"/>
     <sheet name="U23CV5_check_total" sheetId="46" state="hidden" r:id="rId46"/>
     <sheet name="objectsPositionU23CV5" sheetId="47" state="hidden" r:id="rId47"/>
+    <sheet name="U24CV5_check_total" r:id="rId52" sheetId="48"/>
+    <sheet name="objectsPositionU24CV5" r:id="rId53" sheetId="49"/>
+    <sheet name="U25CV5_check_total" r:id="rId54" sheetId="50"/>
+    <sheet name="objectsPositionU25CV5" r:id="rId55" sheetId="51"/>
+    <sheet name="U26CV5_check_total" r:id="rId56" sheetId="52"/>
+    <sheet name="objectsPositionU26CV5" r:id="rId57" sheetId="53"/>
+    <sheet name="U27CV5_check_total" r:id="rId58" sheetId="54"/>
+    <sheet name="objectsPositionU27CV5" r:id="rId59" sheetId="55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5473" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6305" uniqueCount="1167">
   <si>
     <t>timestamp</t>
   </si>
@@ -3143,6 +3151,441 @@
   </si>
   <si>
     <t>09:41:15</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_48_923</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_899</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_53_565</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_424</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_56_197</t>
+  </si>
+  <si>
+    <t>U24CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_25_462</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_25_495</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_25_539</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_25_562</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_25_583</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_30_997</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_31_019</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_31_042</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_31_275</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_33_640</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_33_863</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_36_484</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_36_561</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_39_082</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_39_216</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_41_659</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_41_681</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_235</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_257</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_279</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_301</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_46_324</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_47_801</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_48_922</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_221</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_244</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_277</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_299</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_377</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_399</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_421</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_51_877</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_53_498</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_56_064</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_56_141</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_56_801</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_43_542</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_39_121</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_32_369</t>
+  </si>
+  <si>
+    <t>U25CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_728</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_762</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_805</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_806</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_829</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_47_840</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_13_444</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_13_466</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_13_822</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_13_865</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_20_662</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_20_841</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_20_863</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_20_962</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_21_840</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_22_862</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_22_907</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_22_929</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_23_083</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_25_127</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_25_138</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_27_227</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_27_304</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_27_326</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_27_482</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_29_648</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_29_848</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_32_202</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_39_065</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_40_709</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_41_086</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_54_802</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_55_080</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_08_55_324</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_13_674</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_18_749</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_31_032</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_10_786</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_30_310</t>
+  </si>
+  <si>
+    <t>U26CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_40_406</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_40_450</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_40_483</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_40_506</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_40_528</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_45_908</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_45_930</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_46_053</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_46_153</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_49_651</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_49_673</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_52_550</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_52_572</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_56_848</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_56_992</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_00_991</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_01_013</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_10_530</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_10_563</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_10_586</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_13_429</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_13_673</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_18_371</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_18_427</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_18_449</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_30_132</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_04_30_843</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_48_463</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_05_844</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_15_240</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_43_143</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_11_763</t>
+  </si>
+  <si>
+    <t>U27CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_56_903</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_56_948</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_56_981</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_57_003</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_57_025</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_15_422</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_15_444</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_18_665</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_18_687</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_23_318</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_23_363</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_23_507</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_23_540</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_28_683</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_28_705</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_36_923</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_36_946</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_43_021</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_46_008</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_46_608</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_47_708</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_47_785</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_02_48_063</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_05_799</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_03_05_821</t>
   </si>
 </sst>
 </file>
@@ -3545,13 +3988,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -4537,8 +4980,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5272,8 +5715,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5369,10 +5812,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.86328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -6009,8 +6452,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6109,9 +6552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6590,7 +7033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6689,9 +7132,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7100,7 +7543,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7199,8 +7642,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7728,7 +8171,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7827,15 +8270,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.19921875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="9.19921875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -8656,9 +9099,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9460,7 +9903,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -9559,9 +10002,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9955,7 +10398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10054,9 +10497,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10790,7 +11233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10889,9 +11332,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11653,8 +12096,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12352,7 +12795,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12451,8 +12894,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -12569,9 +13012,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13473,7 +13916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13572,9 +14015,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -14272,7 +14715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14371,8 +14814,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15251,8 +15694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15961,7 +16404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -16893,8 +17336,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17628,9 +18071,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -17744,8 +18187,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18326,8 +18769,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18441,8 +18884,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20281,8 +20724,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20393,8 +20836,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20956,7 +21399,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -21878,6 +22321,812 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
@@ -21888,7 +23137,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -21989,6 +23238,2228 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -22002,8 +25473,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22601,7 +26072,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -22697,9 +26168,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">

--- a/objectsPositionCV5.xlsx
+++ b/objectsPositionCV5.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268FE4A-913F-4B2E-A464-6960AF0500AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25074052-6145-401C-951C-A56B2B857967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,14 +60,14 @@
     <sheet name="objectsPositionU22CV5" sheetId="45" state="hidden" r:id="rId45"/>
     <sheet name="U23CV5_check_total" sheetId="46" state="hidden" r:id="rId46"/>
     <sheet name="objectsPositionU23CV5" sheetId="47" state="hidden" r:id="rId47"/>
-    <sheet name="U24CV5_check_total" r:id="rId52" sheetId="48"/>
-    <sheet name="objectsPositionU24CV5" r:id="rId53" sheetId="49"/>
-    <sheet name="U25CV5_check_total" r:id="rId54" sheetId="50"/>
-    <sheet name="objectsPositionU25CV5" r:id="rId55" sheetId="51"/>
-    <sheet name="U26CV5_check_total" r:id="rId56" sheetId="52"/>
-    <sheet name="objectsPositionU26CV5" r:id="rId57" sheetId="53"/>
-    <sheet name="U27CV5_check_total" r:id="rId58" sheetId="54"/>
-    <sheet name="objectsPositionU27CV5" r:id="rId59" sheetId="55"/>
+    <sheet name="U24CV5_check_total" sheetId="48" state="hidden" r:id="rId48"/>
+    <sheet name="objectsPositionU24CV5" sheetId="49" state="hidden" r:id="rId49"/>
+    <sheet name="U25CV5_check_total" sheetId="50" state="hidden" r:id="rId50"/>
+    <sheet name="objectsPositionU25CV5" sheetId="51" state="hidden" r:id="rId51"/>
+    <sheet name="U26CV5_check_total" sheetId="52" state="hidden" r:id="rId52"/>
+    <sheet name="objectsPositionU26CV5" sheetId="53" state="hidden" r:id="rId53"/>
+    <sheet name="U27CV5_check_total" sheetId="54" state="hidden" r:id="rId54"/>
+    <sheet name="objectsPositionU27CV5" sheetId="55" state="hidden" r:id="rId55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6305" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="1194">
   <si>
     <t>timestamp</t>
   </si>
@@ -3171,111 +3171,6 @@
     <t>U24CV</t>
   </si>
   <si>
-    <t>2021_11_10_12_17_25_462</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_25_495</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_25_539</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_25_562</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_25_583</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_30_997</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_31_019</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_31_042</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_31_275</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_33_640</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_33_863</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_36_484</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_36_561</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_39_082</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_39_216</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_41_659</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_41_681</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_46_235</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_46_257</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_46_279</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_46_301</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_46_324</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_47_801</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_48_922</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_221</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_244</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_277</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_299</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_377</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_399</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_421</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_51_877</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_53_498</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_56_064</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_56_141</t>
-  </si>
-  <si>
     <t>491</t>
   </si>
   <si>
@@ -3294,108 +3189,6 @@
     <t>U25CV</t>
   </si>
   <si>
-    <t>2021_11_10_14_07_47_728</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_47_762</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_47_805</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_47_806</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_47_829</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_47_840</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_13_444</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_13_466</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_13_822</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_13_865</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_20_662</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_20_841</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_20_863</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_20_962</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_21_840</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_22_862</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_22_907</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_22_929</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_23_083</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_25_127</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_25_138</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_27_227</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_27_304</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_27_326</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_27_482</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_29_648</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_29_848</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_32_202</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_39_065</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_40_709</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_41_086</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_54_802</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_55_080</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_08_55_324</t>
-  </si>
-  <si>
     <t>2021_11_10_15_04_13_674</t>
   </si>
   <si>
@@ -3414,87 +3207,6 @@
     <t>U26CV</t>
   </si>
   <si>
-    <t>2021_11_10_15_03_40_406</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_40_450</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_40_483</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_40_506</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_40_528</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_45_908</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_45_930</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_46_053</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_46_153</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_49_651</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_49_673</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_52_550</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_52_572</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_56_848</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_56_992</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_00_991</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_01_013</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_10_530</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_10_563</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_10_586</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_13_429</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_13_673</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_18_371</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_18_427</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_18_449</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_30_132</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_04_30_843</t>
-  </si>
-  <si>
     <t>2021_11_10_16_02_48_463</t>
   </si>
   <si>
@@ -3513,79 +3225,448 @@
     <t>U27CV</t>
   </si>
   <si>
-    <t>2021_11_10_16_01_56_903</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_56_948</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_56_981</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_57_003</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_57_025</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_15_422</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_15_444</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_18_665</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_18_687</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_23_318</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_23_363</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_23_507</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_23_540</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_28_683</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_28_705</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_36_923</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_36_946</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_43_021</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_46_008</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_46_608</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_47_708</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_47_785</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_02_48_063</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_05_799</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_03_05_821</t>
+    <t>12:17:25:462</t>
+  </si>
+  <si>
+    <t>12:17:25:495</t>
+  </si>
+  <si>
+    <t>12:17:25:539</t>
+  </si>
+  <si>
+    <t>12:17:25:562</t>
+  </si>
+  <si>
+    <t>12:17:25:583</t>
+  </si>
+  <si>
+    <t>12:17:30:997</t>
+  </si>
+  <si>
+    <t>12:17:31:019</t>
+  </si>
+  <si>
+    <t>12:17:31:042</t>
+  </si>
+  <si>
+    <t>12:17:31:275</t>
+  </si>
+  <si>
+    <t>12:17:33:640</t>
+  </si>
+  <si>
+    <t>12:17:33:863</t>
+  </si>
+  <si>
+    <t>12:17:36:484</t>
+  </si>
+  <si>
+    <t>12:17:36:561</t>
+  </si>
+  <si>
+    <t>12:17:39:082</t>
+  </si>
+  <si>
+    <t>12:17:39:216</t>
+  </si>
+  <si>
+    <t>12:17:41:659</t>
+  </si>
+  <si>
+    <t>12:17:41:681</t>
+  </si>
+  <si>
+    <t>12:17:46:235</t>
+  </si>
+  <si>
+    <t>12:17:46:257</t>
+  </si>
+  <si>
+    <t>12:17:46:279</t>
+  </si>
+  <si>
+    <t>12:17:46:301</t>
+  </si>
+  <si>
+    <t>12:17:46:324</t>
+  </si>
+  <si>
+    <t>12:17:46:424</t>
+  </si>
+  <si>
+    <t>12:17:47:801</t>
+  </si>
+  <si>
+    <t>12:17:48:922</t>
+  </si>
+  <si>
+    <t>12:17:48:923</t>
+  </si>
+  <si>
+    <t>12:17:51:221</t>
+  </si>
+  <si>
+    <t>12:17:51:244</t>
+  </si>
+  <si>
+    <t>12:17:51:277</t>
+  </si>
+  <si>
+    <t>12:17:51:299</t>
+  </si>
+  <si>
+    <t>12:17:51:377</t>
+  </si>
+  <si>
+    <t>12:17:51:399</t>
+  </si>
+  <si>
+    <t>12:17:51:421</t>
+  </si>
+  <si>
+    <t>12:17:51:877</t>
+  </si>
+  <si>
+    <t>12:17:51:899</t>
+  </si>
+  <si>
+    <t>12:17:53:498</t>
+  </si>
+  <si>
+    <t>12:17:53:565</t>
+  </si>
+  <si>
+    <t>12:17:56:064</t>
+  </si>
+  <si>
+    <t>12:17:56:141</t>
+  </si>
+  <si>
+    <t>12:17:56:197</t>
+  </si>
+  <si>
+    <t>12:17:25</t>
+  </si>
+  <si>
+    <t>12:17:56</t>
+  </si>
+  <si>
+    <t>14:07:47:728</t>
+  </si>
+  <si>
+    <t>14:07:47:762</t>
+  </si>
+  <si>
+    <t>14:07:47:805</t>
+  </si>
+  <si>
+    <t>14:07:47:806</t>
+  </si>
+  <si>
+    <t>14:07:47:829</t>
+  </si>
+  <si>
+    <t>14:07:47:840</t>
+  </si>
+  <si>
+    <t>14:08:13:444</t>
+  </si>
+  <si>
+    <t>14:08:13:466</t>
+  </si>
+  <si>
+    <t>14:08:13:822</t>
+  </si>
+  <si>
+    <t>14:08:13:865</t>
+  </si>
+  <si>
+    <t>14:08:20:662</t>
+  </si>
+  <si>
+    <t>14:08:20:841</t>
+  </si>
+  <si>
+    <t>14:08:20:863</t>
+  </si>
+  <si>
+    <t>14:08:20:962</t>
+  </si>
+  <si>
+    <t>14:08:21:840</t>
+  </si>
+  <si>
+    <t>14:08:22:862</t>
+  </si>
+  <si>
+    <t>14:08:22:907</t>
+  </si>
+  <si>
+    <t>14:08:22:929</t>
+  </si>
+  <si>
+    <t>14:08:23:083</t>
+  </si>
+  <si>
+    <t>14:08:25:127</t>
+  </si>
+  <si>
+    <t>14:08:25:138</t>
+  </si>
+  <si>
+    <t>14:08:27:227</t>
+  </si>
+  <si>
+    <t>14:08:27:304</t>
+  </si>
+  <si>
+    <t>14:08:27:326</t>
+  </si>
+  <si>
+    <t>14:08:27:482</t>
+  </si>
+  <si>
+    <t>14:08:29:648</t>
+  </si>
+  <si>
+    <t>14:08:29:848</t>
+  </si>
+  <si>
+    <t>14:08:32:202</t>
+  </si>
+  <si>
+    <t>14:08:32:369</t>
+  </si>
+  <si>
+    <t>14:08:39:065</t>
+  </si>
+  <si>
+    <t>14:08:39:121</t>
+  </si>
+  <si>
+    <t>14:08:40:709</t>
+  </si>
+  <si>
+    <t>14:08:41:086</t>
+  </si>
+  <si>
+    <t>14:08:43:542</t>
+  </si>
+  <si>
+    <t>14:08:54:802</t>
+  </si>
+  <si>
+    <t>14:08:55:080</t>
+  </si>
+  <si>
+    <t>14:08:55:324</t>
+  </si>
+  <si>
+    <t>14:08:56:801</t>
+  </si>
+  <si>
+    <t>14:07:47</t>
+  </si>
+  <si>
+    <t>14:08:56</t>
+  </si>
+  <si>
+    <t>15:03:40:406</t>
+  </si>
+  <si>
+    <t>15:03:40:450</t>
+  </si>
+  <si>
+    <t>15:03:40:483</t>
+  </si>
+  <si>
+    <t>15:03:40:506</t>
+  </si>
+  <si>
+    <t>15:03:40:528</t>
+  </si>
+  <si>
+    <t>15:03:45:908</t>
+  </si>
+  <si>
+    <t>15:03:45:930</t>
+  </si>
+  <si>
+    <t>15:03:46:053</t>
+  </si>
+  <si>
+    <t>15:03:46:153</t>
+  </si>
+  <si>
+    <t>15:03:49:651</t>
+  </si>
+  <si>
+    <t>15:03:49:673</t>
+  </si>
+  <si>
+    <t>15:03:52:550</t>
+  </si>
+  <si>
+    <t>15:03:52:572</t>
+  </si>
+  <si>
+    <t>15:03:56:848</t>
+  </si>
+  <si>
+    <t>15:03:56:992</t>
+  </si>
+  <si>
+    <t>15:04:00:991</t>
+  </si>
+  <si>
+    <t>15:04:01:013</t>
+  </si>
+  <si>
+    <t>15:04:10:530</t>
+  </si>
+  <si>
+    <t>15:04:10:563</t>
+  </si>
+  <si>
+    <t>15:04:10:586</t>
+  </si>
+  <si>
+    <t>15:04:10:786</t>
+  </si>
+  <si>
+    <t>15:04:13:429</t>
+  </si>
+  <si>
+    <t>15:04:13:673</t>
+  </si>
+  <si>
+    <t>15:04:13:674</t>
+  </si>
+  <si>
+    <t>15:04:18:371</t>
+  </si>
+  <si>
+    <t>15:04:18:427</t>
+  </si>
+  <si>
+    <t>15:04:18:449</t>
+  </si>
+  <si>
+    <t>15:04:18:749</t>
+  </si>
+  <si>
+    <t>15:04:30:132</t>
+  </si>
+  <si>
+    <t>15:04:30:310</t>
+  </si>
+  <si>
+    <t>15:04:30:843</t>
+  </si>
+  <si>
+    <t>15:04:31:032</t>
+  </si>
+  <si>
+    <t>15:03:40</t>
+  </si>
+  <si>
+    <t>15:04:31</t>
+  </si>
+  <si>
+    <t>16:01:56:903</t>
+  </si>
+  <si>
+    <t>16:01:56:948</t>
+  </si>
+  <si>
+    <t>16:01:56:981</t>
+  </si>
+  <si>
+    <t>16:01:57:003</t>
+  </si>
+  <si>
+    <t>16:01:57:025</t>
+  </si>
+  <si>
+    <t>16:02:15:422</t>
+  </si>
+  <si>
+    <t>16:02:15:444</t>
+  </si>
+  <si>
+    <t>16:02:18:665</t>
+  </si>
+  <si>
+    <t>16:02:18:687</t>
+  </si>
+  <si>
+    <t>16:02:23:318</t>
+  </si>
+  <si>
+    <t>16:02:23:363</t>
+  </si>
+  <si>
+    <t>16:02:23:507</t>
+  </si>
+  <si>
+    <t>16:02:23:540</t>
+  </si>
+  <si>
+    <t>16:02:28:683</t>
+  </si>
+  <si>
+    <t>16:02:28:705</t>
+  </si>
+  <si>
+    <t>16:02:36:923</t>
+  </si>
+  <si>
+    <t>16:02:36:946</t>
+  </si>
+  <si>
+    <t>16:02:43:021</t>
+  </si>
+  <si>
+    <t>16:02:43:143</t>
+  </si>
+  <si>
+    <t>16:02:46:008</t>
+  </si>
+  <si>
+    <t>16:02:46:608</t>
+  </si>
+  <si>
+    <t>16:02:47:708</t>
+  </si>
+  <si>
+    <t>16:02:47:785</t>
+  </si>
+  <si>
+    <t>16:02:48:063</t>
+  </si>
+  <si>
+    <t>16:02:48:463</t>
+  </si>
+  <si>
+    <t>16:03:05:799</t>
+  </si>
+  <si>
+    <t>16:03:05:821</t>
+  </si>
+  <si>
+    <t>16:03:05:844</t>
+  </si>
+  <si>
+    <t>16:03:11:763</t>
+  </si>
+  <si>
+    <t>16:03:15:240</t>
+  </si>
+  <si>
+    <t>16:01:56</t>
+  </si>
+  <si>
+    <t>16:03:15</t>
   </si>
 </sst>
 </file>
@@ -3644,7 +3725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3666,6 +3747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3982,19 +4064,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851F44A9-1D6D-47A4-A894-31339CD535A6}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="A25:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.265625" collapsed="true"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -4835,112 +4917,162 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="D25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+        <v>3.5879629629631538E-4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1127</v>
+      </c>
       <c r="D26" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+        <v>7.9861111111112493E-4</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1161</v>
+      </c>
       <c r="D27" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+        <v>5.9027777777775903E-4</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="D28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+        <v>9.1435185185173573E-4</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
@@ -4980,8 +5112,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5715,8 +5847,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5812,10 +5944,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.86328125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -6452,8 +6584,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6552,9 +6684,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7033,7 +7165,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7132,9 +7264,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7543,7 +7675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7642,8 +7774,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8171,7 +8303,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8270,15 +8402,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="9.19921875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.19921875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -9099,9 +9231,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9903,7 +10035,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10002,9 +10134,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10398,7 +10530,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10497,9 +10629,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11233,7 +11365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -11332,9 +11464,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12096,8 +12228,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12795,7 +12927,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12894,8 +13026,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -13012,9 +13144,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13916,7 +14048,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14015,9 +14147,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -14715,7 +14847,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14814,8 +14946,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15694,8 +15826,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -16404,7 +16536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -17336,8 +17468,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18071,9 +18203,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18187,8 +18319,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18769,8 +18901,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -18884,8 +19016,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.9296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20724,8 +20856,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20836,8 +20968,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -21399,7 +21531,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -22322,15 +22454,17 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -22341,7 +22475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -22355,7 +22489,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -22369,7 +22503,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -22383,7 +22517,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -22397,7 +22531,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -22412,718 +22546,877 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>984</v>
       </c>
       <c r="C2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>12:17:25</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C50,LEN(C2)-4)</f>
+        <v>12:17:56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1029</v>
+        <v>984</v>
       </c>
       <c r="C3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1029</v>
+        <v>984</v>
       </c>
       <c r="C4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1030</v>
+        <v>984</v>
       </c>
       <c r="C5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1030</v>
+        <v>984</v>
       </c>
       <c r="C6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
       <c r="C7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1032</v>
+        <v>984</v>
       </c>
       <c r="C8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="C9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="C10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1034</v>
+        <v>984</v>
       </c>
       <c r="C11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1035</v>
+        <v>984</v>
       </c>
       <c r="C12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1036</v>
+        <v>984</v>
       </c>
       <c r="C13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1037</v>
+        <v>984</v>
       </c>
       <c r="C14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1037</v>
+        <v>984</v>
       </c>
       <c r="C15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1038</v>
+        <v>984</v>
       </c>
       <c r="C16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="C17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="C18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1040</v>
+        <v>984</v>
       </c>
       <c r="C19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1041</v>
+        <v>984</v>
       </c>
       <c r="C20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1041</v>
+        <v>984</v>
       </c>
       <c r="C21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1042</v>
+        <v>984</v>
       </c>
       <c r="C22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="C23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="C24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1044</v>
+        <v>984</v>
       </c>
       <c r="C25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1045</v>
+        <v>984</v>
       </c>
       <c r="C26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1046</v>
+        <v>984</v>
       </c>
       <c r="C27" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1047</v>
+        <v>984</v>
       </c>
       <c r="C28" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1048</v>
+        <v>984</v>
       </c>
       <c r="C29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1049</v>
+        <v>984</v>
       </c>
       <c r="C30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="C31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="C32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>1050</v>
+        <v>984</v>
       </c>
       <c r="C33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>1051</v>
+        <v>984</v>
       </c>
       <c r="C34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="C35" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>1052</v>
+        <v>984</v>
       </c>
       <c r="C36" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>1053</v>
+        <v>984</v>
       </c>
       <c r="C37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="C38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>1055</v>
+        <v>984</v>
       </c>
       <c r="C39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>1056</v>
+        <v>984</v>
       </c>
       <c r="C40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>1057</v>
+        <v>984</v>
       </c>
       <c r="C41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="C42" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>1059</v>
+        <v>984</v>
       </c>
       <c r="C43" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>1023</v>
+        <v>984</v>
       </c>
       <c r="C44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>1060</v>
+        <v>984</v>
       </c>
       <c r="C45" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>1024</v>
+        <v>984</v>
       </c>
       <c r="C46" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D46" t="s">
         <v>102</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>1024</v>
+        <v>984</v>
       </c>
       <c r="C47" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D47" t="s">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>1061</v>
+        <v>984</v>
       </c>
       <c r="C48" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D48" t="s">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>1062</v>
+        <v>984</v>
       </c>
       <c r="C49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D49" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>1026</v>
+        <v>984</v>
       </c>
       <c r="C50" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>1027</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -23137,7 +23430,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -23242,15 +23535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -23261,802 +23556,957 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="B4" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>1067</v>
+        <v>1032</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1069</v>
+      <c r="B2" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:07:47</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C50,LEN(C2)-4)</f>
+        <v>14:08:56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1070</v>
+      <c r="B3" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1070</v>
+      <c r="B4" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1071</v>
+      <c r="B5" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1072</v>
+      <c r="B6" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1073</v>
+      <c r="B7" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1074</v>
+      <c r="B8" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1075</v>
+      <c r="B9" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>1076</v>
+      <c r="B10" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>1077</v>
+      <c r="B11" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>1078</v>
+      <c r="B12" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1079</v>
+      <c r="B13" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="D13" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>1079</v>
+      <c r="B14" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>1080</v>
+      <c r="B15" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>1081</v>
+      <c r="B16" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>1082</v>
+      <c r="B17" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>1083</v>
+      <c r="B18" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>1084</v>
+      <c r="B19" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>1084</v>
+      <c r="B20" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>1085</v>
+      <c r="B21" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>1086</v>
+      <c r="B22" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C22" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>1087</v>
+      <c r="B23" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>1088</v>
+      <c r="B24" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="D24" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>1088</v>
+      <c r="B25" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>1089</v>
+      <c r="B26" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>1090</v>
+      <c r="B27" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C27" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>1090</v>
+      <c r="B28" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="D28" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>1091</v>
+      <c r="B29" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>1092</v>
+      <c r="B30" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>1093</v>
+      <c r="B31" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="D31" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>1094</v>
+      <c r="B32" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D32" t="s">
         <v>102</v>
       </c>
-      <c r="D32" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>1094</v>
+      <c r="B33" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="D33" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>1095</v>
+      <c r="B34" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C34" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>1096</v>
+      <c r="B35" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>1096</v>
+      <c r="B36" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D36" t="s">
         <v>99</v>
       </c>
-      <c r="D36" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>1067</v>
+      <c r="B37" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D37" t="s">
         <v>101</v>
       </c>
-      <c r="D37" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>1097</v>
+      <c r="B38" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="D38" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>1066</v>
+      <c r="B39" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C39" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D39" t="s">
         <v>100</v>
       </c>
-      <c r="D39" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>1066</v>
+      <c r="B40" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C40" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D40" t="s">
         <v>98</v>
       </c>
-      <c r="D40" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
-        <v>1098</v>
+      <c r="B41" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="B42" t="s">
-        <v>1099</v>
+      <c r="B42" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C42" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="D42" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>176</v>
       </c>
-      <c r="B43" t="s">
-        <v>1099</v>
+      <c r="B43" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C43" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>177</v>
       </c>
-      <c r="B44" t="s">
-        <v>1065</v>
+      <c r="B44" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="D44" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>178</v>
       </c>
-      <c r="B45" t="s">
-        <v>1100</v>
+      <c r="B45" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C45" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D45" t="s">
         <v>104</v>
       </c>
-      <c r="D45" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>179</v>
       </c>
-      <c r="B46" t="s">
-        <v>1100</v>
+      <c r="B46" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>180</v>
       </c>
-      <c r="B47" t="s">
-        <v>1101</v>
+      <c r="B47" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s">
-        <v>1102</v>
+      <c r="B48" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C48" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>182</v>
       </c>
-      <c r="B49" t="s">
-        <v>1064</v>
+      <c r="B49" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D49" t="s">
         <v>104</v>
       </c>
-      <c r="D49" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>183</v>
       </c>
-      <c r="B50" t="s">
-        <v>1064</v>
+      <c r="B50" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
-        <v>1068</v>
+      <c r="E50" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24067,718 +24517,858 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>1103</v>
+        <v>1034</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>1104</v>
+        <v>1035</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>1105</v>
+        <v>1036</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>1106</v>
+        <v>1037</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>1107</v>
+        <v>1038</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>1108</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1109</v>
+      <c r="B2" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:03:40</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C44,LEN(C2)-4)</f>
+        <v>15:04:31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1110</v>
+      <c r="B3" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1110</v>
+      <c r="B4" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1111</v>
+      <c r="B5" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1111</v>
+      <c r="B6" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1112</v>
+      <c r="B7" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1113</v>
+      <c r="B8" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1114</v>
+      <c r="B9" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>1114</v>
+      <c r="B10" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>1115</v>
+      <c r="B11" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>1116</v>
+      <c r="B12" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1117</v>
+      <c r="B13" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>1118</v>
+      <c r="B14" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>1118</v>
+      <c r="B15" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>1119</v>
+      <c r="B16" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>1120</v>
+      <c r="B17" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>1120</v>
+      <c r="B18" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>1121</v>
+      <c r="B19" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>1122</v>
+      <c r="B20" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>1122</v>
+      <c r="B21" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>1123</v>
+      <c r="B22" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>1124</v>
+      <c r="B23" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>1124</v>
+      <c r="B24" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>1125</v>
+      <c r="B25" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>1126</v>
+      <c r="B26" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>1127</v>
+      <c r="B27" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>1128</v>
+      <c r="B28" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>1106</v>
+      <c r="B29" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>1106</v>
+      <c r="B30" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C30" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>1129</v>
+      <c r="B31" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C31" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>1130</v>
+      <c r="B32" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>1103</v>
+      <c r="B33" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>1131</v>
+      <c r="B34" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
       </c>
-      <c r="D34" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>1132</v>
+      <c r="B35" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>1133</v>
+      <c r="B36" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C36" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="D36" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>1104</v>
+      <c r="B37" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C37" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>1104</v>
+      <c r="B38" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>1134</v>
+      <c r="B39" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C39" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D39" t="s">
         <v>99</v>
       </c>
-      <c r="D39" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>1107</v>
+      <c r="B40" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
-        <v>1107</v>
+      <c r="B41" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D41" t="s">
         <v>99</v>
       </c>
-      <c r="D41" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="B42" t="s">
-        <v>1135</v>
+      <c r="B42" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>176</v>
       </c>
-      <c r="B43" t="s">
-        <v>1105</v>
+      <c r="B43" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C43" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D43" t="s">
         <v>102</v>
       </c>
-      <c r="D43" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>177</v>
       </c>
-      <c r="B44" t="s">
-        <v>1105</v>
+      <c r="B44" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D44" t="s">
         <v>97</v>
       </c>
-      <c r="D44" t="s">
-        <v>1108</v>
+      <c r="E44" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24789,677 +25379,809 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>1136</v>
+        <v>1040</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>1137</v>
+        <v>1041</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>1138</v>
+        <v>1042</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>1139</v>
+        <v>1043</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>1140</v>
+        <v>1044</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>1141</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1142</v>
+      <c r="B2" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:01:56</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C42,LEN(C2)-4)</f>
+        <v>16:03:15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1143</v>
+      <c r="B3" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1143</v>
+      <c r="B4" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1144</v>
+      <c r="B5" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1144</v>
+      <c r="B6" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1145</v>
+      <c r="B7" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1146</v>
+      <c r="B8" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1147</v>
+      <c r="B9" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>1147</v>
+      <c r="B10" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>1148</v>
+      <c r="B11" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>1149</v>
+      <c r="B12" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1149</v>
+      <c r="B13" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>1150</v>
+      <c r="B14" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>1151</v>
+      <c r="B15" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>1151</v>
+      <c r="B16" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>1152</v>
+      <c r="B17" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>1153</v>
+      <c r="B18" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>1154</v>
+      <c r="B19" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>1155</v>
+      <c r="B20" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C20" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>1155</v>
+      <c r="B21" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-      <c r="D21" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>1156</v>
+      <c r="B22" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>1157</v>
+      <c r="B23" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>1157</v>
+      <c r="B24" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>1158</v>
+      <c r="B25" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>1159</v>
+      <c r="B26" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>1139</v>
+      <c r="B27" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>1139</v>
+      <c r="B28" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>1160</v>
+      <c r="B29" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>1161</v>
+      <c r="B30" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C30" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>1161</v>
+      <c r="B31" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C31" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>1162</v>
+      <c r="B32" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>1162</v>
+      <c r="B33" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>1163</v>
+      <c r="B34" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C34" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>1164</v>
+      <c r="B35" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>1136</v>
+      <c r="B36" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C36" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D36" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>1136</v>
+      <c r="B37" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D37" t="s">
         <v>95</v>
       </c>
-      <c r="D37" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>1165</v>
+      <c r="B38" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C38" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>1166</v>
+      <c r="B39" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>1137</v>
+      <c r="B40" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C40" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
-        <v>1140</v>
+      <c r="B41" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C41" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D41" t="s">
         <v>99</v>
       </c>
-      <c r="D41" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="B42" t="s">
-        <v>1138</v>
+      <c r="B42" s="11">
+        <v>84.216087962962959</v>
       </c>
       <c r="C42" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
-        <v>1141</v>
+      <c r="E42" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25473,8 +26195,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -26072,7 +26794,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -26168,9 +26890,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
